--- a/Work/IntraComparision.xlsx
+++ b/Work/IntraComparision.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="480" yWindow="105" windowWidth="18315" windowHeight="6930"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MV" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -157,6 +157,26 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Module-dependent MV</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -169,7 +189,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$2</c:f>
+              <c:f>MV!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -185,7 +205,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$B$15:$B$21</c:f>
+                <c:f>MV!$B$15:$B$21</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="7"/>
@@ -215,7 +235,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$B$15:$B$21</c:f>
+                <c:f>MV!$B$15:$B$21</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="7"/>
@@ -246,7 +266,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:f>MV!$A$3:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -275,7 +295,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$9</c:f>
+              <c:f>MV!$B$3:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -309,7 +329,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$2</c:f>
+              <c:f>MV!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -325,7 +345,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$C$15:$C$21</c:f>
+                <c:f>MV!$C$15:$C$21</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="7"/>
@@ -355,7 +375,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$C$15:$C$21</c:f>
+                <c:f>MV!$C$15:$C$21</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="7"/>
@@ -386,7 +406,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:f>MV!$A$3:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -415,7 +435,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$9</c:f>
+              <c:f>MV!$C$3:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -449,7 +469,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
+              <c:f>MV!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -465,7 +485,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$D$15:$D$21</c:f>
+                <c:f>MV!$D$15:$D$21</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="7"/>
@@ -495,7 +515,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$D$15:$D$21</c:f>
+                <c:f>MV!$D$15:$D$21</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="7"/>
@@ -526,7 +546,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:f>MV!$A$3:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -555,7 +575,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$9</c:f>
+              <c:f>MV!$D$3:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -593,8 +613,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="154498944"/>
-        <c:axId val="154514560"/>
+        <c:axId val="154591232"/>
+        <c:axId val="154592768"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -604,7 +624,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$2</c:f>
+              <c:f>MV!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -639,7 +659,7 @@
           </c:trendline>
           <c:xVal>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:f>MV!$A$3:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -668,7 +688,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$9</c:f>
+              <c:f>MV!$E$3:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -703,7 +723,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$2</c:f>
+              <c:f>MV!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -738,7 +758,7 @@
           </c:trendline>
           <c:xVal>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:f>MV!$A$3:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -767,7 +787,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$9</c:f>
+              <c:f>MV!$F$3:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -802,7 +822,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$2</c:f>
+              <c:f>MV!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -837,7 +857,7 @@
           </c:trendline>
           <c:xVal>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:f>MV!$A$3:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -866,7 +886,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$3:$G$9</c:f>
+              <c:f>MV!$G$3:$G$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -904,20 +924,40 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="301734144"/>
-        <c:axId val="301732608"/>
+        <c:axId val="154736128"/>
+        <c:axId val="154594688"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="154498944"/>
+        <c:axId val="154591232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Module  Name</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154514560"/>
+        <c:crossAx val="154592768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -925,7 +965,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154514560"/>
+        <c:axId val="154592768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.16000000000000003"/>
@@ -933,17 +973,40 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Mean MV</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> Values</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154498944"/>
+        <c:crossAx val="154591232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="4.0000000000000008E-2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="301732608"/>
+        <c:axId val="154594688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -953,12 +1016,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="301734144"/>
+        <c:crossAx val="154736128"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="301734144"/>
+        <c:axId val="154736128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -967,7 +1030,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="301732608"/>
+        <c:crossAx val="154594688"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1325,8 +1388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/Work/IntraComparision.xlsx
+++ b/Work/IntraComparision.xlsx
@@ -7,16 +7,17 @@
     <workbookView xWindow="480" yWindow="105" windowWidth="18315" windowHeight="6930"/>
   </bookViews>
   <sheets>
-    <sheet name="MV" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="inter's modules" sheetId="4" r:id="rId1"/>
+    <sheet name="MV" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="142">
   <si>
     <t>Insular</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +81,403 @@
   <si>
     <t>PS:个体内差异（动态）</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    'Fr3_right'</t>
+  </si>
+  <si>
+    <t>hypo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>striatum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensory-motor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hippo-tha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ant-DMN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insular</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    'L_olfactory_structures'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'L_accumbens_nucleus'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'R_CortexOrbitofrontal'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'L_CortexOrbitofrontal'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S2_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'GI_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'AIP_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'GI_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1ULp_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'DLO_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'DI_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'DLO_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'DI_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'AI_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'AID_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'AIV_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'AIV_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'AIP_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'R_CortexMedialPrefrontal'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'L_CortexMedialPrefrontal'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'M2_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1J_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'M2_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'M1_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'Cg2_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'Cg1_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'Cg2_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'RSD_right'</t>
+  </si>
+  <si>
+    <t>anterior-dmn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    'Cg1_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'RSGb_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'RSGb_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'Ect_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'Ect_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'Au1_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'DLEnt_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'AuV_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'DLEnt_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'R_hippocampal_formation'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'AuV_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'L_hippocampal_formation'</t>
+  </si>
+  <si>
+    <t>hippocampus-thalamus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    'R_diencephalon'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'Au1_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'L_diencephalon'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'V2MM_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'RSGc_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'V2MM_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'RSGc_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'V2ML_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'V2ML_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'RSD_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'V2L_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'PtPR_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1BF_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'V2L_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'PtPD_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'LPtA_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'V1_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'PtPD_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'V1_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'MPtA_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'AUD_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'V1M_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'MPtA_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'V1M_left'</t>
+  </si>
+  <si>
+    <t>posterior-DMN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    'V1B_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'LPtA_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'V1B_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1J_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1HL_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1DZ0_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1HL_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1FL_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1FL_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S2_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1ULp_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1DZ_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1Sh_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1DZ_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1DZ0_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1Tr_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1Tr_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1BF_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'M1_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1Sh_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'Fr3_left'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'PtPR_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'AUD_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'R_accumbens_nucleus'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'R_hypothalamus'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'L_hypothalamus'</t>
+  </si>
+  <si>
+    <t>hypothalamus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    'R_pituitary'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    'L_pituitary'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'R_pallidum'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'R_olfactory_structures'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'L_pallidum'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'L_preoptic_area'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'R_diagonal_domain'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'L_bed_nucleus_of_the_stria_terminalis'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'L_diagonal_domain'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'R_striatum'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'R_bed_nucleus_of_the_stria_terminalis'</t>
+  </si>
+  <si>
+    <t>striatum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'L_striatum'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'L_amygdala'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'R_preoptic_area'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'R_amygdala'</t>
   </si>
 </sst>
 </file>
@@ -125,8 +523,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -613,8 +1014,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="154591232"/>
-        <c:axId val="154592768"/>
+        <c:axId val="127736064"/>
+        <c:axId val="127746432"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -924,11 +1325,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="154736128"/>
-        <c:axId val="154594688"/>
+        <c:axId val="127762432"/>
+        <c:axId val="127748352"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="154591232"/>
+        <c:axId val="127736064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -957,7 +1358,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154592768"/>
+        <c:crossAx val="127746432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -965,7 +1366,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154592768"/>
+        <c:axId val="127746432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.16000000000000003"/>
@@ -1000,13 +1401,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154591232"/>
+        <c:crossAx val="127736064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="4.0000000000000008E-2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="154594688"/>
+        <c:axId val="127748352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1016,12 +1417,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154736128"/>
+        <c:crossAx val="127762432"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="154736128"/>
+        <c:axId val="127762432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1030,7 +1431,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154594688"/>
+        <c:crossAx val="127748352"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1386,10 +1787,962 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G130"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F101" sqref="F101"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" s="1" customFormat="1">
+      <c r="A14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="1" customFormat="1">
+      <c r="A15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="1" customFormat="1">
+      <c r="A16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="1" customFormat="1">
+      <c r="A17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="1" customFormat="1">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24"/>
+    </row>
+    <row r="25" spans="1:4" s="1" customFormat="1">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25"/>
+    </row>
+    <row r="26" spans="1:4" s="1" customFormat="1">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26"/>
+    </row>
+    <row r="27" spans="1:4" s="1" customFormat="1">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>97</v>
+      </c>
+      <c r="B54" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>97</v>
+      </c>
+      <c r="B56" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>97</v>
+      </c>
+      <c r="B57" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>97</v>
+      </c>
+      <c r="B60" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>97</v>
+      </c>
+      <c r="B61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>97</v>
+      </c>
+      <c r="B62" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>97</v>
+      </c>
+      <c r="B63" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>97</v>
+      </c>
+      <c r="B64" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>97</v>
+      </c>
+      <c r="B65" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>97</v>
+      </c>
+      <c r="B66" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>97</v>
+      </c>
+      <c r="B67" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>71</v>
+      </c>
+      <c r="B74" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>71</v>
+      </c>
+      <c r="B75" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>71</v>
+      </c>
+      <c r="B76" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>71</v>
+      </c>
+      <c r="B77" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>71</v>
+      </c>
+      <c r="B78" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>71</v>
+      </c>
+      <c r="B79" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>71</v>
+      </c>
+      <c r="B80" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>71</v>
+      </c>
+      <c r="B81" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>58</v>
+      </c>
+      <c r="B82" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>58</v>
+      </c>
+      <c r="B83" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>58</v>
+      </c>
+      <c r="B84" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>58</v>
+      </c>
+      <c r="B85" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>58</v>
+      </c>
+      <c r="B86" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>58</v>
+      </c>
+      <c r="B87" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>58</v>
+      </c>
+      <c r="B88" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>58</v>
+      </c>
+      <c r="B89" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>58</v>
+      </c>
+      <c r="B90" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>28</v>
+      </c>
+      <c r="B91" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>28</v>
+      </c>
+      <c r="B92" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>28</v>
+      </c>
+      <c r="B93" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>28</v>
+      </c>
+      <c r="B94" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>28</v>
+      </c>
+      <c r="B95" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>28</v>
+      </c>
+      <c r="B96" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>28</v>
+      </c>
+      <c r="B97" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>28</v>
+      </c>
+      <c r="B98" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>28</v>
+      </c>
+      <c r="B99" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>28</v>
+      </c>
+      <c r="B100" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>28</v>
+      </c>
+      <c r="B101" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>28</v>
+      </c>
+      <c r="B102" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>28</v>
+      </c>
+      <c r="B103" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>28</v>
+      </c>
+      <c r="B104" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>28</v>
+      </c>
+      <c r="B105" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>28</v>
+      </c>
+      <c r="B106" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>28</v>
+      </c>
+      <c r="B107" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>28</v>
+      </c>
+      <c r="B108" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>29</v>
+      </c>
+      <c r="B124" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>27</v>
+      </c>
+      <c r="B125" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>25</v>
+      </c>
+      <c r="B126" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>23</v>
+      </c>
+      <c r="B127" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>22</v>
+      </c>
+      <c r="B128" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>20</v>
+      </c>
+      <c r="B129" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>18</v>
+      </c>
+      <c r="B130" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1707,19 +3060,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1734,4 +3074,17 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Work/IntraComparision.xlsx
+++ b/Work/IntraComparision.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="480" yWindow="105" windowWidth="18315" windowHeight="6930"/>
   </bookViews>
   <sheets>
-    <sheet name="inter's modules" sheetId="4" r:id="rId1"/>
+    <sheet name="inter's modules" sheetId="5" r:id="rId1"/>
     <sheet name="MV" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="143">
   <si>
     <t>Insular</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,398 +86,402 @@
     <t xml:space="preserve">    'Fr3_right'</t>
   </si>
   <si>
+    <t xml:space="preserve">    'L_olfactory_structures'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'L_accumbens_nucleus'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'R_CortexOrbitofrontal'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'L_CortexOrbitofrontal'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S2_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'GI_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'AIP_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'GI_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1ULp_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'DLO_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'DI_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'DLO_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'DI_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'AI_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'AID_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'AIV_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'AIV_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'AIP_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'R_CortexMedialPrefrontal'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'L_CortexMedialPrefrontal'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'M2_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1J_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'M2_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'M1_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'Cg2_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'Cg1_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'Cg2_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'RSD_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'Cg1_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'RSGb_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'RSGb_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'Ect_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'Ect_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'Au1_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'DLEnt_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'AuV_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'DLEnt_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'R_hippocampal_formation'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'AuV_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'L_hippocampal_formation'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'R_diencephalon'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'Au1_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'L_diencephalon'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'V2MM_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'RSGc_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'V2MM_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'RSGc_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'V2ML_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'V2ML_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'RSD_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'V2L_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'PtPR_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1BF_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'V2L_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'PtPD_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'LPtA_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'V1_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'PtPD_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'V1_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'MPtA_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'AUD_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'V1M_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'MPtA_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'V1M_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'V1B_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'LPtA_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'V1B_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1J_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1HL_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1DZ0_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1HL_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1FL_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1FL_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S2_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1ULp_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1DZ_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1Sh_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1DZ_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1DZ0_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1Tr_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1Tr_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1BF_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'M1_left'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1Sh_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'S1_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'PtPR_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'AUD_right'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'R_accumbens_nucleus'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'R_hypothalamus'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'L_hypothalamus'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'L_pituitary'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'R_pallidum'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'R_olfactory_structures'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'L_pallidum'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'L_preoptic_area'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'R_diagonal_domain'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'L_bed_nucleus_of_the_stria_terminalis'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'L_diagonal_domain'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'R_striatum'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'R_bed_nucleus_of_the_stria_terminalis'</t>
+  </si>
+  <si>
+    <t>striatum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'L_striatum'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'L_amygdala'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'R_preoptic_area'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'R_amygdala'</t>
+  </si>
+  <si>
+    <t>hypothalamus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    'R_pituitary'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensory-motor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    'Fr3_left'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>posterior-DMN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hippocampus-thalamus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anterior-dmn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insular</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ant-DMN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hippo-tha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pos-DMN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>striatum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>hypo</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>七</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>striatum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>六</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sensory-motor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hippo-tha</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ant-DMN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insular</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    'L_olfactory_structures'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'L_accumbens_nucleus'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'R_CortexOrbitofrontal'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'L_CortexOrbitofrontal'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S2_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'GI_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'AIP_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'GI_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S1ULp_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'DLO_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'DI_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'DLO_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'DI_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'AI_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'AID_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'AIV_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'AIV_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'AIP_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'R_CortexMedialPrefrontal'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'L_CortexMedialPrefrontal'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'M2_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S1J_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'M2_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'M1_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'Cg2_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'Cg1_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'Cg2_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'RSD_right'</t>
-  </si>
-  <si>
-    <t>anterior-dmn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    'Cg1_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'RSGb_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'RSGb_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'Ect_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'Ect_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'Au1_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'DLEnt_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'AuV_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'DLEnt_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'R_hippocampal_formation'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'AuV_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'L_hippocampal_formation'</t>
-  </si>
-  <si>
-    <t>hippocampus-thalamus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    'R_diencephalon'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'Au1_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'L_diencephalon'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S1_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'V2MM_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'RSGc_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'V2MM_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'RSGc_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'V2ML_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'V2ML_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'RSD_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'V2L_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'PtPR_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S1BF_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'V2L_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'PtPD_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'LPtA_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'V1_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'PtPD_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'V1_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'MPtA_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'AUD_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'V1M_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'MPtA_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'V1M_left'</t>
-  </si>
-  <si>
-    <t>posterior-DMN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    'V1B_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'LPtA_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'V1B_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S1J_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S1HL_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S1DZ0_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S1HL_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S1FL_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S1FL_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S2_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S1ULp_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S1DZ_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S1Sh_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S1DZ_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S1DZ0_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S1Tr_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S1Tr_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S1BF_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'M1_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S1Sh_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'Fr3_left'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S1_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'PtPR_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'AUD_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'R_accumbens_nucleus'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'R_hypothalamus'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'L_hypothalamus'</t>
-  </si>
-  <si>
-    <t>hypothalamus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    'R_pituitary'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    'L_pituitary'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'R_pallidum'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'R_olfactory_structures'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'L_pallidum'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'L_preoptic_area'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'R_diagonal_domain'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'L_bed_nucleus_of_the_stria_terminalis'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'L_diagonal_domain'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'R_striatum'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'R_bed_nucleus_of_the_stria_terminalis'</t>
-  </si>
-  <si>
-    <t>striatum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'L_striatum'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'L_amygdala'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'R_preoptic_area'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'R_amygdala'</t>
   </si>
 </sst>
 </file>
@@ -1789,8 +1793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F101" sqref="F101"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1801,818 +1805,818 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="B1" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="B10" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="C13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1">
       <c r="A14" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="1" customFormat="1">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="1" customFormat="1">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B17" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C17"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B18" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="B19" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="B20" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="B23" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="1" customFormat="1">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="B24" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C24"/>
     </row>
     <row r="25" spans="1:4" s="1" customFormat="1">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C25"/>
     </row>
     <row r="26" spans="1:4" s="1" customFormat="1">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C26"/>
     </row>
     <row r="27" spans="1:4" s="1" customFormat="1">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C27"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="B28" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="B29" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="B30" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="B33" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="B36" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="B37" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="B38" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="B39" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="B42" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="B46" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="B48" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="B49" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="B50" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="B51" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="B53" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="B54" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="B55" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="B56" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="B57" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="B58" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="B59" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="B60" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="B61" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="B62" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="B63" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="B64" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="B65" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="B66" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="B67" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="B68" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="B69" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="B70" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="B72" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="B73" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="B74" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="B75" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="B76" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="B77" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="B78" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="B79" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="B80" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="B81" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="B82" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="B83" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="B84" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="B85" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="B86" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="B87" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="B88" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="B89" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="B90" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="B91" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="B92" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="B93" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="B94" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="B95" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="B96" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="B97" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="B98" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
+        <v>130</v>
+      </c>
+      <c r="B99" t="s">
         <v>28</v>
-      </c>
-      <c r="B99" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="B100" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="B101" t="s">
         <v>16</v>
@@ -2620,114 +2624,114 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="B102" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="B103" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="B104" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="B105" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="B106" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="B107" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="B108" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="B124" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="B125" t="s">
-        <v>26</v>
+        <v>133</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="B126" t="s">
-        <v>24</v>
+        <v>135</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="B127" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="B128" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="B129" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="B130" t="s">
-        <v>17</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/Work/IntraComparision.xlsx
+++ b/Work/IntraComparision.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="480" yWindow="105" windowWidth="18315" windowHeight="6930"/>
   </bookViews>
   <sheets>
-    <sheet name="inter's modules" sheetId="5" r:id="rId1"/>
+    <sheet name="inter's modules" sheetId="6" r:id="rId1"/>
     <sheet name="MV" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="131">
   <si>
     <t>Insular</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,405 +83,355 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    'Fr3_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'L_olfactory_structures'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'L_accumbens_nucleus'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'R_CortexOrbitofrontal'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'L_CortexOrbitofrontal'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S2_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'GI_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'AIP_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'GI_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S1ULp_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'DLO_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'DI_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'DLO_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'DI_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'AI_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'AID_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'AIV_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'AIV_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'AIP_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'R_CortexMedialPrefrontal'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'L_CortexMedialPrefrontal'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'M2_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S1J_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'M2_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'M1_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'Cg2_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'Cg1_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'Cg2_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'RSD_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'Cg1_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'RSGb_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'RSGb_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'Ect_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'Ect_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'Au1_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'DLEnt_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'AuV_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'DLEnt_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'R_hippocampal_formation'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'AuV_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'L_hippocampal_formation'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'R_diencephalon'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'Au1_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'L_diencephalon'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S1_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'V2MM_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'RSGc_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'V2MM_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'RSGc_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'V2ML_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'V2ML_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'RSD_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'V2L_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'PtPR_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S1BF_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'V2L_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'PtPD_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'LPtA_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'V1_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'PtPD_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'V1_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'MPtA_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'AUD_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'V1M_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'MPtA_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'V1M_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'V1B_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'LPtA_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'V1B_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S1J_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S1HL_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S1DZ0_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S1HL_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S1FL_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S1FL_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S2_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S1ULp_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S1DZ_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S1Sh_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S1DZ_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S1DZ0_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S1Tr_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S1Tr_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S1BF_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'M1_left'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S1Sh_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'S1_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'PtPR_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'AUD_right'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'R_accumbens_nucleus'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'R_hypothalamus'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'L_hypothalamus'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'L_pituitary'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'R_pallidum'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'R_olfactory_structures'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'L_pallidum'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'L_preoptic_area'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'R_diagonal_domain'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'L_bed_nucleus_of_the_stria_terminalis'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'L_diagonal_domain'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'R_striatum'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'R_bed_nucleus_of_the_stria_terminalis'</t>
-  </si>
-  <si>
     <t>striatum</t>
   </si>
   <si>
-    <t xml:space="preserve">    'L_striatum'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'L_amygdala'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'R_preoptic_area'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'R_amygdala'</t>
+    <t>L_olfactory_structures</t>
+  </si>
+  <si>
+    <t>insular</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L_accumbens_nucleus</t>
+  </si>
+  <si>
+    <t>R_CortexOrbitofrontal</t>
+  </si>
+  <si>
+    <t>L_CortexOrbitofrontal</t>
+  </si>
+  <si>
+    <t>S2_right</t>
+  </si>
+  <si>
+    <t>GI_right</t>
+  </si>
+  <si>
+    <t>GI_left</t>
+  </si>
+  <si>
+    <t>Fr3_right</t>
+  </si>
+  <si>
+    <t>DLO_right</t>
+  </si>
+  <si>
+    <t>DLO_left</t>
+  </si>
+  <si>
+    <t>DI_right</t>
+  </si>
+  <si>
+    <t>DI_left</t>
+  </si>
+  <si>
+    <t>AI_left</t>
+  </si>
+  <si>
+    <t>AIV_right</t>
+  </si>
+  <si>
+    <t>AIV_left</t>
+  </si>
+  <si>
+    <t>AIP_right</t>
+  </si>
+  <si>
+    <t>AIP_left</t>
+  </si>
+  <si>
+    <t>AID_right</t>
+  </si>
+  <si>
+    <t>R_CortexMedialPrefrontal</t>
+  </si>
+  <si>
+    <t>anterior-dmn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L_CortexMedialPrefrontal</t>
+  </si>
+  <si>
+    <t>M2_right</t>
+  </si>
+  <si>
+    <t>M2_left</t>
+  </si>
+  <si>
+    <t>M1_right</t>
+  </si>
+  <si>
+    <t>Cg2_right</t>
+  </si>
+  <si>
+    <t>Cg2_left</t>
+  </si>
+  <si>
+    <t>Cg1_right</t>
+  </si>
+  <si>
+    <t>Cg1_left</t>
+  </si>
+  <si>
+    <t>R_hippocampal_formation</t>
+  </si>
+  <si>
+    <t>hippocampus-thalamus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L_hippocampal_formation</t>
+  </si>
+  <si>
+    <t>R_diencephalon</t>
+  </si>
+  <si>
+    <t>L_diencephalon</t>
+  </si>
+  <si>
+    <t>RSGb_right</t>
+  </si>
+  <si>
+    <t>RSGb_left</t>
+  </si>
+  <si>
+    <t>Ect_right</t>
+  </si>
+  <si>
+    <t>Ect_left</t>
+  </si>
+  <si>
+    <t>DLEnt_right</t>
+  </si>
+  <si>
+    <t>DLEnt_left</t>
+  </si>
+  <si>
+    <t>AuV_right</t>
+  </si>
+  <si>
+    <t>AuV_left</t>
+  </si>
+  <si>
+    <t>Au1_right</t>
+  </si>
+  <si>
+    <t>Au1_left</t>
+  </si>
+  <si>
+    <t>V2MM_right</t>
+  </si>
+  <si>
+    <t>posterior-DMN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2MM_left</t>
+  </si>
+  <si>
+    <t>V2ML_right</t>
+  </si>
+  <si>
+    <t>V2ML_left</t>
+  </si>
+  <si>
+    <t>V2L_right</t>
+  </si>
+  <si>
+    <t>V2L_left</t>
+  </si>
+  <si>
+    <t>V1_right</t>
+  </si>
+  <si>
+    <t>V1_left</t>
+  </si>
+  <si>
+    <t>V1M_right</t>
+  </si>
+  <si>
+    <t>V1M_left</t>
+  </si>
+  <si>
+    <t>V1B_right</t>
+  </si>
+  <si>
+    <t>V1B_left</t>
+  </si>
+  <si>
+    <t>S1_left</t>
+  </si>
+  <si>
+    <t>RSGc_right</t>
+  </si>
+  <si>
+    <t>RSGc_left</t>
+  </si>
+  <si>
+    <t>RSD_right</t>
+  </si>
+  <si>
+    <t>RSD_left</t>
+  </si>
+  <si>
+    <t>PtPR_left</t>
+  </si>
+  <si>
+    <t>PtPD_right</t>
+  </si>
+  <si>
+    <t>PtPD_left</t>
+  </si>
+  <si>
+    <t>MPtA_right</t>
+  </si>
+  <si>
+    <t>MPtA_left</t>
+  </si>
+  <si>
+    <t>LPtA_right</t>
+  </si>
+  <si>
+    <t>LPtA_left</t>
+  </si>
+  <si>
+    <t>AUD_left</t>
+  </si>
+  <si>
+    <t>S2_left</t>
+  </si>
+  <si>
+    <t>sensory-motor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1ULp_right</t>
+  </si>
+  <si>
+    <t>S1ULp_left</t>
+  </si>
+  <si>
+    <t>S1Tr_right</t>
+  </si>
+  <si>
+    <t>S1Tr_left</t>
+  </si>
+  <si>
+    <t>S1Sh_right</t>
+  </si>
+  <si>
+    <t>S1Sh_left</t>
+  </si>
+  <si>
+    <t>S1J_right</t>
+  </si>
+  <si>
+    <t>S1J_left</t>
+  </si>
+  <si>
+    <t>S1HL_right</t>
+  </si>
+  <si>
+    <t>S1HL_left</t>
+  </si>
+  <si>
+    <t>S1FL_right</t>
+  </si>
+  <si>
+    <t>S1FL_left</t>
+  </si>
+  <si>
+    <t>S1DZ_right</t>
+  </si>
+  <si>
+    <t>S1DZ_left</t>
+  </si>
+  <si>
+    <t>S1DZ0_right</t>
+  </si>
+  <si>
+    <t>S1DZ0_left</t>
+  </si>
+  <si>
+    <t>S1BF_right</t>
+  </si>
+  <si>
+    <t>S1BF_left</t>
+  </si>
+  <si>
+    <t>M1_left</t>
+  </si>
+  <si>
+    <t>Fr3_left</t>
+  </si>
+  <si>
+    <t>S1_right</t>
+  </si>
+  <si>
+    <t>PtPR_right</t>
+  </si>
+  <si>
+    <t>AUD_right</t>
+  </si>
+  <si>
+    <t>R_hypothalamus</t>
   </si>
   <si>
     <t>hypothalamus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    'R_pituitary'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sensory-motor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    'Fr3_left'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>posterior-DMN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hippocampus-thalamus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>anterior-dmn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insular</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ant-DMN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hippo-tha</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pos-DMN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>六</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>striatum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>七</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hypo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>L_hypothalamus</t>
+  </si>
+  <si>
+    <t>R_pituitary</t>
+  </si>
+  <si>
+    <t>L_pituitary</t>
+  </si>
+  <si>
+    <t>R_accumbens_nucleus</t>
+  </si>
+  <si>
+    <t>R_striatum</t>
+  </si>
+  <si>
+    <t>L_striatum</t>
+  </si>
+  <si>
+    <t>R_preoptic_area</t>
+  </si>
+  <si>
+    <t>L_preoptic_area</t>
+  </si>
+  <si>
+    <t>R_pallidum</t>
+  </si>
+  <si>
+    <t>L_pallidum</t>
+  </si>
+  <si>
+    <t>R_olfactory_structures</t>
+  </si>
+  <si>
+    <t>R_diagonal_domain</t>
+  </si>
+  <si>
+    <t>L_diagonal_domain</t>
+  </si>
+  <si>
+    <t>R_bed_nucleus_of_the_stria_terminalis</t>
+  </si>
+  <si>
+    <t>L_bed_nucleus_of_the_stria_terminalis</t>
+  </si>
+  <si>
+    <t>R_amygdala</t>
+  </si>
+  <si>
+    <t>L_amygdala</t>
   </si>
 </sst>
 </file>
@@ -527,12 +477,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1018,8 +977,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="127736064"/>
-        <c:axId val="127746432"/>
+        <c:axId val="66475904"/>
+        <c:axId val="66478080"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1329,11 +1288,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="127762432"/>
-        <c:axId val="127748352"/>
+        <c:axId val="66481536"/>
+        <c:axId val="66480000"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="127736064"/>
+        <c:axId val="66475904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1362,7 +1321,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127746432"/>
+        <c:crossAx val="66478080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1370,7 +1329,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127746432"/>
+        <c:axId val="66478080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.16000000000000003"/>
@@ -1405,13 +1364,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127736064"/>
+        <c:crossAx val="66475904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="4.0000000000000008E-2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="127748352"/>
+        <c:axId val="66480000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1421,12 +1380,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127762432"/>
+        <c:crossAx val="66481536"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="127762432"/>
+        <c:axId val="66481536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1435,7 +1394,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127748352"/>
+        <c:crossAx val="66480000"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1791,947 +1750,897 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G130"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C113" sqref="C113"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2"/>
     <col min="6" max="6" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" t="s">
-        <v>120</v>
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" t="s">
-        <v>122</v>
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" t="s">
-        <v>114</v>
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B4" t="s">
-        <v>117</v>
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" t="s">
-        <v>115</v>
+        <v>16</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B6" t="s">
-        <v>113</v>
+        <v>16</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" t="s">
-        <v>110</v>
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8" t="s">
-        <v>111</v>
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9" t="s">
-        <v>109</v>
+        <v>16</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B10" t="s">
-        <v>112</v>
+        <v>16</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11" t="s">
-        <v>121</v>
+        <v>16</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1">
       <c r="A14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>105</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14"/>
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1">
       <c r="A15" t="s">
-        <v>123</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>108</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15"/>
     </row>
     <row r="16" spans="1:7" s="1" customFormat="1">
       <c r="A16" t="s">
-        <v>123</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="1" customFormat="1">
+        <v>113</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="1:7" s="1" customFormat="1">
       <c r="A17" t="s">
-        <v>123</v>
-      </c>
-      <c r="B17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C17"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>123</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" s="1" customFormat="1">
+      <c r="A24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>125</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="G24"/>
+    </row>
+    <row r="25" spans="1:7" s="1" customFormat="1">
+      <c r="A25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25"/>
+    </row>
+    <row r="26" spans="1:7" s="1" customFormat="1">
+      <c r="A26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>125</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="G26"/>
+    </row>
+    <row r="27" spans="1:7" s="1" customFormat="1">
+      <c r="A27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>125</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="G27"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>125</v>
-      </c>
-      <c r="B22" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>125</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" s="1" customFormat="1">
-      <c r="A24" t="s">
-        <v>125</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C24"/>
-    </row>
-    <row r="25" spans="1:4" s="1" customFormat="1">
-      <c r="A25" t="s">
-        <v>125</v>
-      </c>
-      <c r="B25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25"/>
-    </row>
-    <row r="26" spans="1:4" s="1" customFormat="1">
-      <c r="A26" t="s">
-        <v>125</v>
-      </c>
-      <c r="B26" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26"/>
-    </row>
-    <row r="27" spans="1:4" s="1" customFormat="1">
-      <c r="A27" t="s">
-        <v>125</v>
-      </c>
-      <c r="B27" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>125</v>
-      </c>
-      <c r="B28" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>125</v>
-      </c>
-      <c r="B29" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>125</v>
-      </c>
-      <c r="B30" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>125</v>
-      </c>
-      <c r="B31" t="s">
-        <v>90</v>
-      </c>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>125</v>
-      </c>
-      <c r="B32" t="s">
         <v>88</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>125</v>
-      </c>
-      <c r="B33" t="s">
-        <v>86</v>
+        <v>88</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>125</v>
-      </c>
-      <c r="B34" t="s">
-        <v>85</v>
+        <v>88</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>125</v>
-      </c>
-      <c r="B35" t="s">
-        <v>38</v>
+        <v>88</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>125</v>
-      </c>
-      <c r="B36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>125</v>
-      </c>
-      <c r="B37" t="s">
-        <v>101</v>
+        <v>88</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>125</v>
-      </c>
-      <c r="B38" t="s">
-        <v>97</v>
+        <v>88</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>125</v>
-      </c>
-      <c r="B39" t="s">
-        <v>98</v>
+        <v>88</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>125</v>
-      </c>
-      <c r="B40" t="s">
-        <v>92</v>
+        <v>88</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>125</v>
-      </c>
-      <c r="B41" t="s">
-        <v>25</v>
+        <v>88</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>125</v>
-      </c>
-      <c r="B42" t="s">
-        <v>91</v>
+        <v>88</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>127</v>
-      </c>
-      <c r="B43" t="s">
-        <v>78</v>
+        <v>62</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>127</v>
-      </c>
-      <c r="B44" t="s">
-        <v>83</v>
+        <v>62</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>127</v>
-      </c>
-      <c r="B45" t="s">
-        <v>73</v>
+        <v>62</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>127</v>
-      </c>
-      <c r="B46" t="s">
-        <v>80</v>
+        <v>62</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>127</v>
-      </c>
-      <c r="B47" t="s">
-        <v>77</v>
+        <v>62</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>127</v>
-      </c>
-      <c r="B48" t="s">
-        <v>75</v>
+        <v>62</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>127</v>
-      </c>
-      <c r="B49" t="s">
-        <v>72</v>
+        <v>62</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>127</v>
-      </c>
-      <c r="B50" t="s">
-        <v>69</v>
+        <v>62</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>127</v>
-      </c>
-      <c r="B51" t="s">
-        <v>67</v>
+        <v>62</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>127</v>
-      </c>
-      <c r="B52" t="s">
-        <v>44</v>
+        <v>62</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>127</v>
-      </c>
-      <c r="B53" t="s">
-        <v>64</v>
+        <v>62</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>127</v>
-      </c>
-      <c r="B54" t="s">
         <v>62</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>127</v>
-      </c>
-      <c r="B55" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>127</v>
-      </c>
-      <c r="B56" t="s">
-        <v>84</v>
+        <v>62</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>127</v>
-      </c>
-      <c r="B57" t="s">
-        <v>82</v>
+        <v>62</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>127</v>
-      </c>
-      <c r="B58" t="s">
-        <v>81</v>
+        <v>62</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>127</v>
-      </c>
-      <c r="B59" t="s">
-        <v>79</v>
+        <v>62</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>127</v>
-      </c>
-      <c r="B60" t="s">
-        <v>76</v>
+        <v>62</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>127</v>
-      </c>
-      <c r="B61" t="s">
-        <v>74</v>
+        <v>62</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>127</v>
-      </c>
-      <c r="B62" t="s">
-        <v>71</v>
+        <v>62</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>127</v>
-      </c>
-      <c r="B63" t="s">
-        <v>68</v>
+        <v>62</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>127</v>
-      </c>
-      <c r="B64" t="s">
-        <v>66</v>
+        <v>62</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>127</v>
-      </c>
-      <c r="B65" t="s">
-        <v>65</v>
+        <v>62</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>127</v>
-      </c>
-      <c r="B66" t="s">
+        <v>62</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>127</v>
-      </c>
-      <c r="B67" t="s">
+        <v>62</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>128</v>
-      </c>
-      <c r="B68" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>128</v>
-      </c>
-      <c r="B69" t="s">
-        <v>58</v>
+        <v>47</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>128</v>
-      </c>
-      <c r="B70" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>128</v>
-      </c>
-      <c r="B71" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>128</v>
-      </c>
-      <c r="B72" t="s">
-        <v>53</v>
+        <v>47</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>128</v>
-      </c>
-      <c r="B73" t="s">
-        <v>51</v>
+        <v>47</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>128</v>
-      </c>
-      <c r="B74" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>128</v>
-      </c>
-      <c r="B75" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>128</v>
-      </c>
-      <c r="B76" t="s">
         <v>47</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>128</v>
-      </c>
-      <c r="B77" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>128</v>
-      </c>
-      <c r="B78" t="s">
-        <v>59</v>
+        <v>47</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>128</v>
-      </c>
-      <c r="B79" t="s">
-        <v>57</v>
+        <v>47</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>128</v>
-      </c>
-      <c r="B80" t="s">
-        <v>56</v>
+        <v>47</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>128</v>
-      </c>
-      <c r="B81" t="s">
-        <v>54</v>
+        <v>47</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>129</v>
-      </c>
-      <c r="B82" t="s">
+        <v>37</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>129</v>
-      </c>
-      <c r="B83" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>129</v>
-      </c>
-      <c r="B84" t="s">
+        <v>37</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>129</v>
-      </c>
-      <c r="B85" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>129</v>
-      </c>
-      <c r="B86" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>129</v>
-      </c>
-      <c r="B87" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>129</v>
-      </c>
-      <c r="B88" t="s">
         <v>37</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>129</v>
-      </c>
-      <c r="B89" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>129</v>
-      </c>
-      <c r="B90" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>130</v>
-      </c>
-      <c r="B91" t="s">
-        <v>31</v>
+        <v>18</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>130</v>
-      </c>
-      <c r="B92" t="s">
+        <v>18</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>130</v>
-      </c>
-      <c r="B93" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>130</v>
-      </c>
-      <c r="B94" t="s">
-        <v>33</v>
+        <v>18</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>130</v>
-      </c>
-      <c r="B95" t="s">
-        <v>32</v>
+        <v>18</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>130</v>
-      </c>
-      <c r="B96" t="s">
+        <v>18</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>130</v>
-      </c>
-      <c r="B97" t="s">
+        <v>18</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>130</v>
-      </c>
-      <c r="B98" t="s">
-        <v>27</v>
+        <v>18</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>130</v>
-      </c>
-      <c r="B99" t="s">
-        <v>28</v>
+        <v>18</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>130</v>
-      </c>
-      <c r="B100" t="s">
+        <v>18</v>
+      </c>
+      <c r="B100" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>130</v>
-      </c>
-      <c r="B101" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>130</v>
-      </c>
-      <c r="B102" t="s">
+        <v>18</v>
+      </c>
+      <c r="B102" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>130</v>
-      </c>
-      <c r="B103" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>130</v>
-      </c>
-      <c r="B104" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>130</v>
-      </c>
-      <c r="B105" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>130</v>
-      </c>
-      <c r="B106" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>130</v>
-      </c>
-      <c r="B107" t="s">
         <v>18</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>130</v>
-      </c>
-      <c r="B108" t="s">
+        <v>18</v>
+      </c>
+      <c r="B108" s="3" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" t="s">
-        <v>131</v>
-      </c>
-      <c r="B124" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" t="s">
-        <v>132</v>
-      </c>
-      <c r="B125" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" t="s">
-        <v>134</v>
-      </c>
-      <c r="B126" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" t="s">
-        <v>136</v>
-      </c>
-      <c r="B127" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" t="s">
-        <v>138</v>
-      </c>
-      <c r="B128" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" t="s">
-        <v>139</v>
-      </c>
-      <c r="B129" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" t="s">
-        <v>141</v>
-      </c>
-      <c r="B130" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>
